--- a/Graphics.xlsx
+++ b/Graphics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zenabaan/Documents/cpp_tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4072F4-71ED-BB4B-A145-1D6ABE657129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACE49A6-8D13-1B40-A680-589DD58767A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{95A7C53D-95BD-454E-B389-68C2F7C4D0B2}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -199,34 +199,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>657840</c:v>
+                  <c:v>37364337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1524196</c:v>
+                  <c:v>41154659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1863658</c:v>
+                  <c:v>42805000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2049446</c:v>
+                  <c:v>43950642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2189144</c:v>
+                  <c:v>44540080</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2296197</c:v>
+                  <c:v>45030697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2380061</c:v>
+                  <c:v>45945444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2480260</c:v>
+                  <c:v>46052190</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2525169</c:v>
+                  <c:v>46561232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2581966</c:v>
+                  <c:v>47144985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,77 +1333,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CBA9AD-653D-E643-8065-1C1E73AE2681}">
-  <dimension ref="B2:B24"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
-        <v>657840</v>
+        <v>37364337</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="2">
-        <v>1524196</v>
+        <v>41154659</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
-        <v>1863658</v>
+        <v>42805000</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>2049446</v>
+        <v>43950642</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>2189144</v>
+        <v>44540080</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>2296197</v>
+        <v>45030697</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
-        <v>2380061</v>
+        <v>45945444</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>2480260</v>
+        <v>46052190</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
-        <v>2525169</v>
+        <v>46561232</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>2581966</v>
+        <v>47144985</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
